--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col1a1-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H2">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I2">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J2">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.219563</v>
+        <v>0.192845</v>
       </c>
       <c r="N2">
-        <v>0.439126</v>
+        <v>0.38569</v>
       </c>
       <c r="O2">
-        <v>0.0321965312607291</v>
+        <v>0.0287047951944977</v>
       </c>
       <c r="P2">
-        <v>0.02201068841106374</v>
+        <v>0.01963717382327918</v>
       </c>
       <c r="Q2">
-        <v>6.043466525051</v>
+        <v>4.623541123392499</v>
       </c>
       <c r="R2">
-        <v>24.173866100204</v>
+        <v>18.49416449357</v>
       </c>
       <c r="S2">
-        <v>0.0009425540028170592</v>
+        <v>0.0007437218329763049</v>
       </c>
       <c r="T2">
-        <v>0.0004426819496456575</v>
+        <v>0.0003511633493207679</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H3">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I3">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J3">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>18.388942</v>
       </c>
       <c r="O3">
-        <v>0.8988462627351212</v>
+        <v>0.912392187082021</v>
       </c>
       <c r="P3">
-        <v>0.9217246816884522</v>
+        <v>0.9362618955124559</v>
       </c>
       <c r="Q3">
-        <v>168.7184018681113</v>
+        <v>146.9609091112543</v>
       </c>
       <c r="R3">
-        <v>1012.310411208668</v>
+        <v>881.7654546675259</v>
       </c>
       <c r="S3">
-        <v>0.02631373970063374</v>
+        <v>0.02363946459718938</v>
       </c>
       <c r="T3">
-        <v>0.01853785177029125</v>
+        <v>0.01674277907953367</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H4">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I4">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J4">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.07688066666666667</v>
+        <v>0.3209915</v>
       </c>
       <c r="N4">
-        <v>0.230642</v>
+        <v>0.641983</v>
       </c>
       <c r="O4">
-        <v>0.01127371546061507</v>
+        <v>0.04777928007816956</v>
       </c>
       <c r="P4">
-        <v>0.01156066640669093</v>
+        <v>0.03268617740307044</v>
       </c>
       <c r="Q4">
-        <v>2.116138581744667</v>
+        <v>7.695908115374749</v>
       </c>
       <c r="R4">
-        <v>12.696831490468</v>
+        <v>30.783632461499</v>
       </c>
       <c r="S4">
-        <v>0.0003300382127494647</v>
+        <v>0.001237928837925866</v>
       </c>
       <c r="T4">
-        <v>0.0002325096902259801</v>
+        <v>0.0005845132113536638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,113 +729,113 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.524977</v>
+        <v>23.9754265</v>
       </c>
       <c r="H5">
-        <v>55.049954</v>
+        <v>47.950853</v>
       </c>
       <c r="I5">
-        <v>0.02927501708753065</v>
+        <v>0.02590932378848207</v>
       </c>
       <c r="J5">
-        <v>0.02011213558514335</v>
+        <v>0.01788258088872626</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.288241</v>
+        <v>0.07473166666666667</v>
       </c>
       <c r="N5">
-        <v>0.5764819999999999</v>
+        <v>0.224195</v>
       </c>
       <c r="O5">
-        <v>0.04226741466970216</v>
+        <v>0.01112373764531172</v>
       </c>
       <c r="P5">
-        <v>0.02889550078243339</v>
+        <v>0.01141475326119442</v>
       </c>
       <c r="Q5">
-        <v>7.933826895456999</v>
+        <v>1.791723581389167</v>
       </c>
       <c r="R5">
-        <v>31.735307581828</v>
+        <v>10.750341488335</v>
       </c>
       <c r="S5">
-        <v>0.001237379286701275</v>
+        <v>0.0002882085203905083</v>
       </c>
       <c r="T5">
-        <v>0.0005811502295369163</v>
+        <v>0.0002041252485181611</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.524977</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H6">
-        <v>55.049954</v>
+        <v>2490.47351</v>
       </c>
       <c r="I6">
-        <v>0.02927501708753065</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J6">
-        <v>0.02011213558514335</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.034494</v>
+        <v>0.192845</v>
       </c>
       <c r="N6">
-        <v>0.103482</v>
+        <v>0.38569</v>
       </c>
       <c r="O6">
-        <v>0.005058170772432465</v>
+        <v>0.0287047951944977</v>
       </c>
       <c r="P6">
-        <v>0.005186916871589698</v>
+        <v>0.01963717382327918</v>
       </c>
       <c r="Q6">
-        <v>0.9494465566379999</v>
+        <v>160.0917880119833</v>
       </c>
       <c r="R6">
-        <v>5.696679339827999</v>
+        <v>960.5507280718998</v>
       </c>
       <c r="S6">
-        <v>0.0001480780357946085</v>
+        <v>0.02575163815940364</v>
       </c>
       <c r="T6">
-        <v>0.0001043199753902796</v>
+        <v>0.01823873746659416</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>27.524977</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H7">
-        <v>55.049954</v>
+        <v>2490.47351</v>
       </c>
       <c r="I7">
-        <v>0.02927501708753065</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J7">
-        <v>0.02011213558514335</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.07063533333333333</v>
+        <v>6.129647333333334</v>
       </c>
       <c r="N7">
-        <v>0.211906</v>
+        <v>18.388942</v>
       </c>
       <c r="O7">
-        <v>0.01035790510139999</v>
+        <v>0.912392187082021</v>
       </c>
       <c r="P7">
-        <v>0.01062154583977007</v>
+        <v>0.9362618955124559</v>
       </c>
       <c r="Q7">
-        <v>1.944235925387333</v>
+        <v>5088.574769769602</v>
       </c>
       <c r="R7">
-        <v>11.665415552324</v>
+        <v>45797.17292792642</v>
       </c>
       <c r="S7">
-        <v>0.0003032278488345057</v>
+        <v>0.8185250339534521</v>
       </c>
       <c r="T7">
-        <v>0.000213621970053271</v>
+        <v>0.8695871954845262</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J8">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.219563</v>
+        <v>0.3209915</v>
       </c>
       <c r="N8">
-        <v>0.439126</v>
+        <v>0.641983</v>
       </c>
       <c r="O8">
-        <v>0.0321965312607291</v>
+        <v>0.04777928007816956</v>
       </c>
       <c r="P8">
-        <v>0.02201068841106374</v>
+        <v>0.03268617740307044</v>
       </c>
       <c r="Q8">
-        <v>182.2719450920433</v>
+        <v>266.4736092283883</v>
       </c>
       <c r="R8">
-        <v>1093.63167055226</v>
+        <v>1598.84165537033</v>
       </c>
       <c r="S8">
-        <v>0.02842758386029231</v>
+        <v>0.04286373491790928</v>
       </c>
       <c r="T8">
-        <v>0.02002704069376086</v>
+        <v>0.03035847285388918</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8829393337463696</v>
+        <v>0.897119731561083</v>
       </c>
       <c r="J9">
-        <v>0.9098779792682091</v>
+        <v>0.9287862719314923</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>6.129647333333334</v>
+        <v>0.07473166666666667</v>
       </c>
       <c r="N9">
-        <v>18.388942</v>
+        <v>0.224195</v>
       </c>
       <c r="O9">
-        <v>0.8988462627351212</v>
+        <v>0.01112373764531172</v>
       </c>
       <c r="P9">
-        <v>0.9217246816884522</v>
+        <v>0.01141475326119442</v>
       </c>
       <c r="Q9">
-        <v>5088.574769769602</v>
+        <v>62.03907873049445</v>
       </c>
       <c r="R9">
-        <v>45797.17292792642</v>
+        <v>558.35170857445</v>
       </c>
       <c r="S9">
-        <v>0.7936267203597622</v>
+        <v>0.009979324530317961</v>
       </c>
       <c r="T9">
-        <v>0.8386569908163222</v>
+        <v>0.01060186612648261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,122 +1030,122 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>830.1578366666666</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H10">
-        <v>2490.47351</v>
+        <v>0.408172</v>
       </c>
       <c r="I10">
-        <v>0.8829393337463696</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J10">
-        <v>0.9098779792682091</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.07688066666666667</v>
+        <v>0.192845</v>
       </c>
       <c r="N10">
-        <v>0.230642</v>
+        <v>0.38569</v>
       </c>
       <c r="O10">
-        <v>0.01127371546061507</v>
+        <v>0.0287047951944977</v>
       </c>
       <c r="P10">
-        <v>0.01156066640669093</v>
+        <v>0.01963717382327918</v>
       </c>
       <c r="Q10">
-        <v>63.82308792149111</v>
+        <v>0.02623797644666667</v>
       </c>
       <c r="R10">
-        <v>574.4077912934199</v>
+        <v>0.15742785868</v>
       </c>
       <c r="S10">
-        <v>0.009954006817641615</v>
+        <v>4.220521763670598E-06</v>
       </c>
       <c r="T10">
-        <v>0.01051879578911382</v>
+        <v>2.989207441606023E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.1360573333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.408172</v>
+      </c>
+      <c r="I11">
+        <v>0.0001470319413559032</v>
+      </c>
+      <c r="J11">
+        <v>0.000152221876147087</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>830.1578366666666</v>
-      </c>
-      <c r="H11">
-        <v>2490.47351</v>
-      </c>
-      <c r="I11">
-        <v>0.8829393337463696</v>
-      </c>
-      <c r="J11">
-        <v>0.9098779792682091</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.288241</v>
+        <v>6.129647333333334</v>
       </c>
       <c r="N11">
-        <v>0.5764819999999999</v>
+        <v>18.388942</v>
       </c>
       <c r="O11">
-        <v>0.04226741466970216</v>
+        <v>0.912392187082021</v>
       </c>
       <c r="P11">
-        <v>0.02889550078243339</v>
+        <v>0.9362618955124559</v>
       </c>
       <c r="Q11">
-        <v>239.2855249986366</v>
+        <v>0.8339834704471112</v>
       </c>
       <c r="R11">
-        <v>1435.71314999182</v>
+        <v>7.505851234024</v>
       </c>
       <c r="S11">
-        <v>0.03731956294764835</v>
+        <v>0.000134150794544628</v>
       </c>
       <c r="T11">
-        <v>0.02629137986186345</v>
+        <v>0.000142519542299934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>830.1578366666666</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H12">
-        <v>2490.47351</v>
+        <v>0.408172</v>
       </c>
       <c r="I12">
-        <v>0.8829393337463696</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J12">
-        <v>0.9098779792682091</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.034494</v>
+        <v>0.3209915</v>
       </c>
       <c r="N12">
-        <v>0.103482</v>
+        <v>0.641983</v>
       </c>
       <c r="O12">
-        <v>0.005058170772432465</v>
+        <v>0.04777928007816956</v>
       </c>
       <c r="P12">
-        <v>0.005186916871589698</v>
+        <v>0.03268617740307044</v>
       </c>
       <c r="Q12">
-        <v>28.63546441798</v>
+        <v>0.04367324751266666</v>
       </c>
       <c r="R12">
-        <v>257.7191797618199</v>
+        <v>0.262039485076</v>
       </c>
       <c r="S12">
-        <v>0.00446605793178688</v>
+        <v>7.025080306480702E-06</v>
       </c>
       <c r="T12">
-        <v>0.004719461441754215</v>
+        <v>4.975551248371904E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>830.1578366666666</v>
+        <v>0.1360573333333333</v>
       </c>
       <c r="H13">
-        <v>2490.47351</v>
+        <v>0.408172</v>
       </c>
       <c r="I13">
-        <v>0.8829393337463696</v>
+        <v>0.0001470319413559032</v>
       </c>
       <c r="J13">
-        <v>0.9098779792682091</v>
+        <v>0.000152221876147087</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07063533333333333</v>
+        <v>0.07473166666666667</v>
       </c>
       <c r="N13">
-        <v>0.211906</v>
+        <v>0.224195</v>
       </c>
       <c r="O13">
-        <v>0.01035790510139999</v>
+        <v>0.01112373764531172</v>
       </c>
       <c r="P13">
-        <v>0.01062154583977007</v>
+        <v>0.01141475326119442</v>
       </c>
       <c r="Q13">
-        <v>58.63847551222888</v>
+        <v>0.01016779128222222</v>
       </c>
       <c r="R13">
-        <v>527.7462796100599</v>
+        <v>0.09151012154</v>
       </c>
       <c r="S13">
-        <v>0.009145401829238231</v>
+        <v>1.635544741123925E-06</v>
       </c>
       <c r="T13">
-        <v>0.009664310665394646</v>
+        <v>1.737575157175095E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.012325</v>
+        <v>70.673643</v>
       </c>
       <c r="H14">
-        <v>3.036975</v>
+        <v>141.347286</v>
       </c>
       <c r="I14">
-        <v>0.001076688698890992</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J14">
-        <v>0.001109538674068479</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,33 +1305,33 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.219563</v>
+        <v>0.192845</v>
       </c>
       <c r="N14">
-        <v>0.439126</v>
+        <v>0.38569</v>
       </c>
       <c r="O14">
-        <v>0.0321965312607291</v>
+        <v>0.0287047951944977</v>
       </c>
       <c r="P14">
-        <v>0.02201068841106374</v>
+        <v>0.01963717382327918</v>
       </c>
       <c r="Q14">
-        <v>0.222269113975</v>
+        <v>13.629058684335</v>
       </c>
       <c r="R14">
-        <v>1.33361468385</v>
+        <v>54.51623473733999</v>
       </c>
       <c r="S14">
-        <v>3.466564135191755E-05</v>
+        <v>0.002192308500333582</v>
       </c>
       <c r="T14">
-        <v>2.442171003494609E-05</v>
+        <v>0.001035142927888279</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.012325</v>
+        <v>70.673643</v>
       </c>
       <c r="H15">
-        <v>3.036975</v>
+        <v>141.347286</v>
       </c>
       <c r="I15">
-        <v>0.001076688698890992</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J15">
-        <v>0.001109538674068479</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,27 +1373,27 @@
         <v>18.388942</v>
       </c>
       <c r="O15">
-        <v>0.8988462627351212</v>
+        <v>0.912392187082021</v>
       </c>
       <c r="P15">
-        <v>0.9217246816884522</v>
+        <v>0.9362618955124559</v>
       </c>
       <c r="Q15">
-        <v>6.205195236716668</v>
+        <v>433.204507351902</v>
       </c>
       <c r="R15">
-        <v>55.84675713045001</v>
+        <v>2599.227044111412</v>
       </c>
       <c r="S15">
-        <v>0.0009677776131273081</v>
+        <v>0.06968331018649039</v>
       </c>
       <c r="T15">
-        <v>0.001022689181176796</v>
+        <v>0.04935358257317471</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,60 +1402,60 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.012325</v>
+        <v>70.673643</v>
       </c>
       <c r="H16">
-        <v>3.036975</v>
+        <v>141.347286</v>
       </c>
       <c r="I16">
-        <v>0.001076688698890992</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J16">
-        <v>0.001109538674068479</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K16">
         <v>2</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.07688066666666667</v>
+        <v>0.3209915</v>
       </c>
       <c r="N16">
-        <v>0.230642</v>
+        <v>0.641983</v>
       </c>
       <c r="O16">
-        <v>0.01127371546061507</v>
+        <v>0.04777928007816956</v>
       </c>
       <c r="P16">
-        <v>0.01156066640669093</v>
+        <v>0.03268617740307044</v>
       </c>
       <c r="Q16">
-        <v>0.07782822088333334</v>
+        <v>22.6856386770345</v>
       </c>
       <c r="R16">
-        <v>0.70045398795</v>
+        <v>90.74255470813799</v>
       </c>
       <c r="S16">
-        <v>1.21382820309569E-05</v>
+        <v>0.003649108838625979</v>
       </c>
       <c r="T16">
-        <v>1.282700647622786E-05</v>
+        <v>0.00172300075779642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.012325</v>
+        <v>70.673643</v>
       </c>
       <c r="H17">
-        <v>3.036975</v>
+        <v>141.347286</v>
       </c>
       <c r="I17">
-        <v>0.001076688698890992</v>
+        <v>0.07637429514751654</v>
       </c>
       <c r="J17">
-        <v>0.001109538674068479</v>
+        <v>0.05271343713733154</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.288241</v>
+        <v>0.07473166666666667</v>
       </c>
       <c r="N17">
-        <v>0.5764819999999999</v>
+        <v>0.224195</v>
       </c>
       <c r="O17">
-        <v>0.04226741466970216</v>
+        <v>0.01112373764531172</v>
       </c>
       <c r="P17">
-        <v>0.02889550078243339</v>
+        <v>0.01141475326119442</v>
       </c>
       <c r="Q17">
-        <v>0.291793570325</v>
+        <v>5.281559130795</v>
       </c>
       <c r="R17">
-        <v>1.75076142195</v>
+        <v>31.68935478477</v>
       </c>
       <c r="S17">
-        <v>4.550884770620763E-05</v>
+        <v>0.0008495676220665776</v>
       </c>
       <c r="T17">
-        <v>3.206067562468584E-05</v>
+        <v>0.0006017108784721222</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,51 +1535,51 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.012325</v>
+        <v>0.289655</v>
       </c>
       <c r="H18">
-        <v>3.036975</v>
+        <v>0.868965</v>
       </c>
       <c r="I18">
-        <v>0.001076688698890992</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J18">
-        <v>0.001109538674068479</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.034494</v>
+        <v>0.192845</v>
       </c>
       <c r="N18">
-        <v>0.103482</v>
+        <v>0.38569</v>
       </c>
       <c r="O18">
-        <v>0.005058170772432465</v>
+        <v>0.0287047951944977</v>
       </c>
       <c r="P18">
-        <v>0.005186916871589698</v>
+        <v>0.01963717382327918</v>
       </c>
       <c r="Q18">
-        <v>0.03491913855</v>
+        <v>0.05585851847499999</v>
       </c>
       <c r="R18">
-        <v>0.31427224695</v>
+        <v>0.33515111085</v>
       </c>
       <c r="S18">
-        <v>5.446075307738753E-06</v>
+        <v>8.985147669041535E-06</v>
       </c>
       <c r="T18">
-        <v>5.755084868207055E-06</v>
+        <v>6.363779594129871E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,78 +1597,78 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.012325</v>
+        <v>0.289655</v>
       </c>
       <c r="H19">
-        <v>3.036975</v>
+        <v>0.868965</v>
       </c>
       <c r="I19">
-        <v>0.001076688698890992</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J19">
-        <v>0.001109538674068479</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.07063533333333333</v>
+        <v>6.129647333333334</v>
       </c>
       <c r="N19">
-        <v>0.211906</v>
+        <v>18.388942</v>
       </c>
       <c r="O19">
-        <v>0.01035790510139999</v>
+        <v>0.912392187082021</v>
       </c>
       <c r="P19">
-        <v>0.01062154583977007</v>
+        <v>0.9362618955124559</v>
       </c>
       <c r="Q19">
-        <v>0.07150591381666667</v>
+        <v>1.775482998336667</v>
       </c>
       <c r="R19">
-        <v>0.6435532243500001</v>
+        <v>15.97934698503</v>
       </c>
       <c r="S19">
-        <v>1.115223936686272E-05</v>
+        <v>0.0002855961339373417</v>
       </c>
       <c r="T19">
-        <v>1.178501588761605E-05</v>
+        <v>0.0003034125174550487</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>55.986019</v>
+        <v>0.289655</v>
       </c>
       <c r="H20">
-        <v>111.972038</v>
+        <v>0.868965</v>
       </c>
       <c r="I20">
-        <v>0.05954561425747298</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J20">
-        <v>0.04090824144922671</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.219563</v>
+        <v>0.3209915</v>
       </c>
       <c r="N20">
-        <v>0.439126</v>
+        <v>0.641983</v>
       </c>
       <c r="O20">
-        <v>0.0321965312607291</v>
+        <v>0.04777928007816956</v>
       </c>
       <c r="P20">
-        <v>0.02201068841106374</v>
+        <v>0.03268617740307044</v>
       </c>
       <c r="Q20">
-        <v>12.292458289697</v>
+        <v>0.0929767929325</v>
       </c>
       <c r="R20">
-        <v>49.169833158788</v>
+        <v>0.557860757595</v>
       </c>
       <c r="S20">
-        <v>0.001917162230880045</v>
+        <v>1.495582477122635E-05</v>
       </c>
       <c r="T20">
-        <v>0.0009004185559834916</v>
+        <v>1.059254405138396E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>55.986019</v>
+        <v>0.289655</v>
       </c>
       <c r="H21">
-        <v>111.972038</v>
+        <v>0.868965</v>
       </c>
       <c r="I21">
-        <v>0.05954561425747298</v>
+        <v>0.0003130190481471841</v>
       </c>
       <c r="J21">
-        <v>0.04090824144922671</v>
+        <v>0.0003240679973299332</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>6.129647333333334</v>
+        <v>0.07473166666666667</v>
       </c>
       <c r="N21">
-        <v>18.388942</v>
+        <v>0.224195</v>
       </c>
       <c r="O21">
-        <v>0.8988462627351212</v>
+        <v>0.01112373764531172</v>
       </c>
       <c r="P21">
-        <v>0.9217246816884522</v>
+        <v>0.01141475326119442</v>
       </c>
       <c r="Q21">
-        <v>343.1745520672994</v>
+        <v>0.02164640090833333</v>
       </c>
       <c r="R21">
-        <v>2059.047312403796</v>
+        <v>0.194817608175</v>
       </c>
       <c r="S21">
-        <v>0.05352235283759674</v>
+        <v>3.481941769574472E-06</v>
       </c>
       <c r="T21">
-        <v>0.03770613582822284</v>
+        <v>3.699156229370599E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>55.986019</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H22">
-        <v>111.972038</v>
+        <v>0.379208</v>
       </c>
       <c r="I22">
-        <v>0.05954561425747298</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J22">
-        <v>0.04090824144922671</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K22">
         <v>2</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.07688066666666667</v>
+        <v>0.192845</v>
       </c>
       <c r="N22">
-        <v>0.230642</v>
+        <v>0.38569</v>
       </c>
       <c r="O22">
-        <v>0.01127371546061507</v>
+        <v>0.0287047951944977</v>
       </c>
       <c r="P22">
-        <v>0.01156066640669093</v>
+        <v>0.01963717382327918</v>
       </c>
       <c r="Q22">
-        <v>4.304242464732667</v>
+        <v>0.02437612225333333</v>
       </c>
       <c r="R22">
-        <v>25.825454788396</v>
+        <v>0.14625673352</v>
       </c>
       <c r="S22">
-        <v>0.0006713003120662942</v>
+        <v>3.921032351454779E-06</v>
       </c>
       <c r="T22">
-        <v>0.0004729265326788768</v>
+        <v>2.777092440237293E-06</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>55.986019</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H23">
-        <v>111.972038</v>
+        <v>0.379208</v>
       </c>
       <c r="I23">
-        <v>0.05954561425747298</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J23">
-        <v>0.04090824144922671</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.288241</v>
+        <v>6.129647333333334</v>
       </c>
       <c r="N23">
-        <v>0.5764819999999999</v>
+        <v>18.388942</v>
       </c>
       <c r="O23">
-        <v>0.04226741466970216</v>
+        <v>0.912392187082021</v>
       </c>
       <c r="P23">
-        <v>0.02889550078243339</v>
+        <v>0.9362618955124559</v>
       </c>
       <c r="Q23">
-        <v>16.137466102579</v>
+        <v>0.7748037686595556</v>
       </c>
       <c r="R23">
-        <v>64.54986441031599</v>
+        <v>6.973233917936</v>
       </c>
       <c r="S23">
-        <v>0.002516839169582739</v>
+        <v>0.0001246314164070031</v>
       </c>
       <c r="T23">
-        <v>0.001182064122804105</v>
+        <v>0.0001324063154662088</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>55.986019</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H24">
-        <v>111.972038</v>
+        <v>0.379208</v>
       </c>
       <c r="I24">
-        <v>0.05954561425747298</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J24">
-        <v>0.04090824144922671</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.034494</v>
+        <v>0.3209915</v>
       </c>
       <c r="N24">
-        <v>0.103482</v>
+        <v>0.641983</v>
       </c>
       <c r="O24">
-        <v>0.005058170772432465</v>
+        <v>0.04777928007816956</v>
       </c>
       <c r="P24">
-        <v>0.005186916871589698</v>
+        <v>0.03268617740307044</v>
       </c>
       <c r="Q24">
-        <v>1.931181739386</v>
+        <v>0.04057418157733333</v>
       </c>
       <c r="R24">
-        <v>11.587090436316</v>
+        <v>0.243445089464</v>
       </c>
       <c r="S24">
-        <v>0.0003011918856636877</v>
+        <v>6.52657863072414E-06</v>
       </c>
       <c r="T24">
-        <v>0.000212187647760059</v>
+        <v>4.622484731418649E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1966,793 +1966,49 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>55.986019</v>
+        <v>0.1264026666666667</v>
       </c>
       <c r="H25">
-        <v>111.972038</v>
+        <v>0.379208</v>
       </c>
       <c r="I25">
-        <v>0.05954561425747298</v>
+        <v>0.0001365985134151518</v>
       </c>
       <c r="J25">
-        <v>0.04090824144922671</v>
+        <v>0.0001414201689728462</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.07063533333333333</v>
+        <v>0.07473166666666667</v>
       </c>
       <c r="N25">
-        <v>0.211906</v>
+        <v>0.224195</v>
       </c>
       <c r="O25">
-        <v>0.01035790510139999</v>
+        <v>0.01112373764531172</v>
       </c>
       <c r="P25">
-        <v>0.01062154583977007</v>
+        <v>0.01141475326119442</v>
       </c>
       <c r="Q25">
-        <v>3.954591114071333</v>
+        <v>0.009446281951111111</v>
       </c>
       <c r="R25">
-        <v>23.727546684428</v>
+        <v>0.08501653755999999</v>
       </c>
       <c r="S25">
-        <v>0.0006167678216834754</v>
+        <v>1.519486025969741E-06</v>
       </c>
       <c r="T25">
-        <v>0.0004345087617773436</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>3</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>24.21940733333333</v>
-      </c>
-      <c r="H26">
-        <v>72.65822199999999</v>
-      </c>
-      <c r="I26">
-        <v>0.02575927905528127</v>
-      </c>
-      <c r="J26">
-        <v>0.02654519951532467</v>
-      </c>
-      <c r="K26">
-        <v>2</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0.219563</v>
-      </c>
-      <c r="N26">
-        <v>0.439126</v>
-      </c>
-      <c r="O26">
-        <v>0.0321965312607291</v>
-      </c>
-      <c r="P26">
-        <v>0.02201068841106374</v>
-      </c>
-      <c r="Q26">
-        <v>5.317685732328667</v>
-      </c>
-      <c r="R26">
-        <v>31.906114393972</v>
-      </c>
-      <c r="S26">
-        <v>0.0008293594333572075</v>
-      </c>
-      <c r="T26">
-        <v>0.0005842781153413316</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>27</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>24.21940733333333</v>
-      </c>
-      <c r="H27">
-        <v>72.65822199999999</v>
-      </c>
-      <c r="I27">
-        <v>0.02575927905528127</v>
-      </c>
-      <c r="J27">
-        <v>0.02654519951532467</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>6.129647333333334</v>
-      </c>
-      <c r="N27">
-        <v>18.388942</v>
-      </c>
-      <c r="O27">
-        <v>0.8988462627351212</v>
-      </c>
-      <c r="P27">
-        <v>0.9217246816884522</v>
-      </c>
-      <c r="Q27">
-        <v>148.4564255756804</v>
-      </c>
-      <c r="R27">
-        <v>1336.107830181124</v>
-      </c>
-      <c r="S27">
-        <v>0.02315363170959065</v>
-      </c>
-      <c r="T27">
-        <v>0.02446736557361909</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>24.21940733333333</v>
-      </c>
-      <c r="H28">
-        <v>72.65822199999999</v>
-      </c>
-      <c r="I28">
-        <v>0.02575927905528127</v>
-      </c>
-      <c r="J28">
-        <v>0.02654519951532467</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M28">
-        <v>0.07688066666666667</v>
-      </c>
-      <c r="N28">
-        <v>0.230642</v>
-      </c>
-      <c r="O28">
-        <v>0.01127371546061507</v>
-      </c>
-      <c r="P28">
-        <v>0.01156066640669093</v>
-      </c>
-      <c r="Q28">
-        <v>1.862004182058222</v>
-      </c>
-      <c r="R28">
-        <v>16.758037638524</v>
-      </c>
-      <c r="S28">
-        <v>0.0002904027825398224</v>
-      </c>
-      <c r="T28">
-        <v>0.0003068801962957224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>24.21940733333333</v>
-      </c>
-      <c r="H29">
-        <v>72.65822199999999</v>
-      </c>
-      <c r="I29">
-        <v>0.02575927905528127</v>
-      </c>
-      <c r="J29">
-        <v>0.02654519951532467</v>
-      </c>
-      <c r="K29">
-        <v>2</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>0.288241</v>
-      </c>
-      <c r="N29">
-        <v>0.5764819999999999</v>
-      </c>
-      <c r="O29">
-        <v>0.04226741466970216</v>
-      </c>
-      <c r="P29">
-        <v>0.02889550078243339</v>
-      </c>
-      <c r="Q29">
-        <v>6.981026189167332</v>
-      </c>
-      <c r="R29">
-        <v>41.88615713500399</v>
-      </c>
-      <c r="S29">
-        <v>0.001088778129422147</v>
-      </c>
-      <c r="T29">
-        <v>0.0007670368333649146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>24.21940733333333</v>
-      </c>
-      <c r="H30">
-        <v>72.65822199999999</v>
-      </c>
-      <c r="I30">
-        <v>0.02575927905528127</v>
-      </c>
-      <c r="J30">
-        <v>0.02654519951532467</v>
-      </c>
-      <c r="K30">
-        <v>1</v>
-      </c>
-      <c r="L30">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M30">
-        <v>0.034494</v>
-      </c>
-      <c r="N30">
-        <v>0.103482</v>
-      </c>
-      <c r="O30">
-        <v>0.005058170772432465</v>
-      </c>
-      <c r="P30">
-        <v>0.005186916871589698</v>
-      </c>
-      <c r="Q30">
-        <v>0.835424236556</v>
-      </c>
-      <c r="R30">
-        <v>7.518818129003999</v>
-      </c>
-      <c r="S30">
-        <v>0.0001302948324363555</v>
-      </c>
-      <c r="T30">
-        <v>0.0001376877432257522</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>24.21940733333333</v>
-      </c>
-      <c r="H31">
-        <v>72.65822199999999</v>
-      </c>
-      <c r="I31">
-        <v>0.02575927905528127</v>
-      </c>
-      <c r="J31">
-        <v>0.02654519951532467</v>
-      </c>
-      <c r="K31">
-        <v>2</v>
-      </c>
-      <c r="L31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M31">
-        <v>0.07063533333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.211906</v>
-      </c>
-      <c r="O31">
-        <v>0.01035790510139999</v>
-      </c>
-      <c r="P31">
-        <v>0.01062154583977007</v>
-      </c>
-      <c r="Q31">
-        <v>1.710745910125778</v>
-      </c>
-      <c r="R31">
-        <v>15.396713191132</v>
-      </c>
-      <c r="S31">
-        <v>0.0002668121679350838</v>
-      </c>
-      <c r="T31">
-        <v>0.0002819510534778633</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1.320133</v>
-      </c>
-      <c r="H32">
-        <v>3.960399</v>
-      </c>
-      <c r="I32">
-        <v>0.001404067154454411</v>
-      </c>
-      <c r="J32">
-        <v>0.001446905508027602</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>0.219563</v>
-      </c>
-      <c r="N32">
-        <v>0.439126</v>
-      </c>
-      <c r="O32">
-        <v>0.0321965312607291</v>
-      </c>
-      <c r="P32">
-        <v>0.02201068841106374</v>
-      </c>
-      <c r="Q32">
-        <v>0.289852361879</v>
-      </c>
-      <c r="R32">
-        <v>1.739114171274</v>
-      </c>
-      <c r="S32">
-        <v>4.520609203055439E-05</v>
-      </c>
-      <c r="T32">
-        <v>3.184738629744744E-05</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1.320133</v>
-      </c>
-      <c r="H33">
-        <v>3.960399</v>
-      </c>
-      <c r="I33">
-        <v>0.001404067154454411</v>
-      </c>
-      <c r="J33">
-        <v>0.001446905508027602</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>6.129647333333334</v>
-      </c>
-      <c r="N33">
-        <v>18.388942</v>
-      </c>
-      <c r="O33">
-        <v>0.8988462627351212</v>
-      </c>
-      <c r="P33">
-        <v>0.9217246816884522</v>
-      </c>
-      <c r="Q33">
-        <v>8.091949723095334</v>
-      </c>
-      <c r="R33">
-        <v>72.827547507858</v>
-      </c>
-      <c r="S33">
-        <v>0.001262040514410483</v>
-      </c>
-      <c r="T33">
-        <v>0.00133364851882001</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>1.320133</v>
-      </c>
-      <c r="H34">
-        <v>3.960399</v>
-      </c>
-      <c r="I34">
-        <v>0.001404067154454411</v>
-      </c>
-      <c r="J34">
-        <v>0.001446905508027602</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.07688066666666667</v>
-      </c>
-      <c r="N34">
-        <v>0.230642</v>
-      </c>
-      <c r="O34">
-        <v>0.01127371546061507</v>
-      </c>
-      <c r="P34">
-        <v>0.01156066640669093</v>
-      </c>
-      <c r="Q34">
-        <v>0.1014927051286667</v>
-      </c>
-      <c r="R34">
-        <v>0.9134343461579999</v>
-      </c>
-      <c r="S34">
-        <v>1.58290535869145E-05</v>
-      </c>
-      <c r="T34">
-        <v>1.672719190031078E-05</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>1.320133</v>
-      </c>
-      <c r="H35">
-        <v>3.960399</v>
-      </c>
-      <c r="I35">
-        <v>0.001404067154454411</v>
-      </c>
-      <c r="J35">
-        <v>0.001446905508027602</v>
-      </c>
-      <c r="K35">
-        <v>2</v>
-      </c>
-      <c r="L35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>0.288241</v>
-      </c>
-      <c r="N35">
-        <v>0.5764819999999999</v>
-      </c>
-      <c r="O35">
-        <v>0.04226741466970216</v>
-      </c>
-      <c r="P35">
-        <v>0.02889550078243339</v>
-      </c>
-      <c r="Q35">
-        <v>0.3805164560529999</v>
-      </c>
-      <c r="R35">
-        <v>2.283098736318</v>
-      </c>
-      <c r="S35">
-        <v>5.934628864143333E-05</v>
-      </c>
-      <c r="T35">
-        <v>4.180905923931877E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>1.320133</v>
-      </c>
-      <c r="H36">
-        <v>3.960399</v>
-      </c>
-      <c r="I36">
-        <v>0.001404067154454411</v>
-      </c>
-      <c r="J36">
-        <v>0.001446905508027602</v>
-      </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M36">
-        <v>0.034494</v>
-      </c>
-      <c r="N36">
-        <v>0.103482</v>
-      </c>
-      <c r="O36">
-        <v>0.005058170772432465</v>
-      </c>
-      <c r="P36">
-        <v>0.005186916871589698</v>
-      </c>
-      <c r="Q36">
-        <v>0.045536667702</v>
-      </c>
-      <c r="R36">
-        <v>0.409830009318</v>
-      </c>
-      <c r="S36">
-        <v>7.10201144319372E-06</v>
-      </c>
-      <c r="T36">
-        <v>7.504978591184434E-06</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>1.320133</v>
-      </c>
-      <c r="H37">
-        <v>3.960399</v>
-      </c>
-      <c r="I37">
-        <v>0.001404067154454411</v>
-      </c>
-      <c r="J37">
-        <v>0.001446905508027602</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.07063533333333333</v>
-      </c>
-      <c r="N37">
-        <v>0.211906</v>
-      </c>
-      <c r="O37">
-        <v>0.01035790510139999</v>
-      </c>
-      <c r="P37">
-        <v>0.01062154583977007</v>
-      </c>
-      <c r="Q37">
-        <v>0.09324803449933333</v>
-      </c>
-      <c r="R37">
-        <v>0.8392323104939999</v>
-      </c>
-      <c r="S37">
-        <v>1.454319434183151E-05</v>
-      </c>
-      <c r="T37">
-        <v>1.536837317933098E-05</v>
+        <v>1.614276334981462E-06</v>
       </c>
     </row>
   </sheetData>
